--- a/metricas_GARCH.xlsx
+++ b/metricas_GARCH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e65dacde5e48ce8/Documentos/Maestria Explotacion de Datos/Maestria/Taller de Tesis 1/2025/4ta Entrega (Final)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="8_{6CDFD895-1E43-4357-9606-CA6FEFA1AFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCDDD369-66F8-4F75-96D8-52760B7722D7}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{6CDFD895-1E43-4357-9606-CA6FEFA1AFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{214A1486-7004-4137-88C2-ED7F6E2615D6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17C7DECA-DF94-4899-922D-8EE95EB40E74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ALUA</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>MAE sin Outliers</t>
+  </si>
+  <si>
+    <t>Accion</t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="191" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -159,7 +162,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -177,6 +180,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,7 +506,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,6 +516,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
